--- a/assets/index.xlsx
+++ b/assets/index.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4647E7F3-AE27-440C-9596-736369424A9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369FE3A-7DE7-4C53-9DC5-542D532E04AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5670" windowWidth="16440" windowHeight="28440" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$58</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="166">
   <si>
     <t>대각행렬</t>
   </si>
@@ -445,6 +448,90 @@
   </si>
   <si>
     <t>ㅇ</t>
+  </si>
+  <si>
+    <t>en_raw</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>en_index</t>
+  </si>
+  <si>
+    <t>en_commit</t>
+  </si>
+  <si>
+    <t>posterior predictive check</t>
+  </si>
+  <si>
+    <t>numerical predictive check</t>
+  </si>
+  <si>
+    <t>visual predictive check</t>
+  </si>
+  <si>
+    <t>weighting factor</t>
+  </si>
+  <si>
+    <t>empirical Bayesian estimates</t>
+  </si>
+  <si>
+    <t>constant coefficient of variation</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -797,11 +884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820B1A01-E184-4A00-A964-5F70651C46A8}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,9 +897,12 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -829,10 +919,19 @@
         <v>76</v>
       </c>
       <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -840,16 +939,25 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -857,50 +965,83 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -908,16 +1049,25 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -925,33 +1075,51 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -959,50 +1127,77 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1010,33 +1205,51 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1044,16 +1257,25 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1061,33 +1283,48 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1095,342 +1332,522 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1438,16 +1855,28 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1455,127 +1884,187 @@
         <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1583,19 +2072,25 @@
         <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1603,33 +2098,54 @@
         <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1637,36 +2153,57 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1674,16 +2211,25 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1699,8 +2245,17 @@
       <c r="E51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1708,36 +2263,51 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1745,33 +2315,54 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1779,56 +2370,82 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" t="s">
-        <v>89</v>
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I58" xr:uid="{5F4D74AF-3B29-4796-93B0-9FAE611FB410}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I58">
+      <sortCondition ref="G1:G58"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/index.xlsx
+++ b/assets/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc\pipetbooks\basic\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369FE3A-7DE7-4C53-9DC5-542D532E04AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C2EDF-55D6-451A-9532-446BA4F76385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
+    <workbookView xWindow="-16320" yWindow="-5670" windowWidth="16440" windowHeight="28440" xr2:uid="{ECD2918D-62A0-4856-BE13-E9328C629C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,8 +887,8 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -939,22 +939,22 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -965,25 +965,22 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -991,25 +988,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1017,28 +1017,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1049,22 +1046,22 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1075,22 +1072,22 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1098,25 +1095,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1127,22 +1124,22 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1150,25 +1147,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1176,25 +1173,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1205,22 +1202,22 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1228,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1257,22 +1254,19 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1283,19 +1277,22 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1303,28 +1300,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1332,412 +1329,409 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>142</v>
       </c>
-      <c r="I19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
         <v>140</v>
@@ -1748,25 +1742,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1774,25 +1768,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1800,25 +1794,28 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1826,25 +1823,25 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1855,25 +1852,22 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1884,19 +1878,19 @@
         <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
         <v>150</v>
@@ -1910,25 +1904,28 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="I39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1936,51 +1933,51 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
         <v>89</v>
@@ -1991,25 +1988,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2017,25 +2014,25 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2043,25 +2040,25 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2072,23 +2069,26 @@
         <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
         <v>162</v>
       </c>
+      <c r="I45" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
@@ -2098,51 +2098,48 @@
         <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H46" t="s">
         <v>162</v>
       </c>
-      <c r="I46" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2153,25 +2150,22 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2179,22 +2173,22 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H49" t="s">
         <v>163</v>
@@ -2211,22 +2205,22 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2263,22 +2257,22 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2286,25 +2280,28 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>164</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2315,25 +2312,22 @@
         <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2341,25 +2335,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2370,22 +2364,25 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H56" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2393,57 +2390,60 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
+        <v>161</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I58" xr:uid="{5F4D74AF-3B29-4796-93B0-9FAE611FB410}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I58">
-      <sortCondition ref="G1:G58"/>
+      <sortCondition ref="C1:C58"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
